--- a/exportados/datos.xlsx
+++ b/exportados/datos.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,10 +392,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>QC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>SM</t>
         </is>
@@ -423,9 +428,12 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
@@ -456,6 +464,9 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -479,9 +490,12 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
     </row>
@@ -512,46 +526,52 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ctho</t>
+          <t>Chir</t>
         </is>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dalb</t>
+          <t>Ctho</t>
         </is>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -560,26 +580,29 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dnov</t>
+          <t>Dalb</t>
         </is>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -588,23 +611,26 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dsep</t>
+          <t>Dnov</t>
         </is>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -622,17 +648,20 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ecab</t>
+          <t>Dsep</t>
         </is>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -644,19 +673,22 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Esex</t>
+          <t>Ecab</t>
         </is>
       </c>
       <c r="B11">
@@ -675,23 +707,26 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fcat</t>
+          <t>Esex</t>
         </is>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -706,13 +741,16 @@
         <v>1</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gcuj</t>
+          <t>Fcat</t>
         </is>
       </c>
       <c r="B13">
@@ -725,7 +763,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -734,17 +772,20 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hhyd</t>
+          <t>Gcuj</t>
         </is>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -753,29 +794,32 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Leur</t>
+          <t>Hhyd</t>
         </is>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -784,19 +828,22 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lgeo</t>
+          <t>Leur</t>
         </is>
       </c>
       <c r="B16">
@@ -812,19 +859,22 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lgym</t>
+          <t>Lgeo</t>
         </is>
       </c>
       <c r="B17">
@@ -846,132 +896,147 @@
         <v>1</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Llon</t>
+          <t>Lgym</t>
         </is>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lwie</t>
+          <t>Llon</t>
         </is>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mcoy</t>
+          <t>Lwie</t>
         </is>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mgou</t>
+          <t>Mcoy</t>
         </is>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Oari</t>
+          <t>Mgou</t>
         </is>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -980,19 +1045,22 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pcan</t>
+          <t>Oari</t>
         </is>
       </c>
       <c r="B23">
@@ -1008,40 +1076,77 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Pcan</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Sscr</t>
         </is>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
     </row>
@@ -1052,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2631,367 +2736,367 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ctho</t>
+          <t>Btau</t>
         </is>
       </c>
       <c r="C88">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D88">
-        <v>0.1327</v>
+        <v>0.1591</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Leur</t>
+          <t>Cfam</t>
         </is>
       </c>
       <c r="C89">
-        <v>66.67</v>
+        <v>50</v>
       </c>
       <c r="D89">
-        <v>0.08359999999999999</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Dnov</t>
+          <t>Mgou</t>
         </is>
       </c>
       <c r="C90">
-        <v>50</v>
+        <v>38.89</v>
       </c>
       <c r="D90">
-        <v>0.0255</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Lgeo</t>
+          <t>Chir</t>
         </is>
       </c>
       <c r="C91">
-        <v>41.67</v>
+        <v>33.33</v>
       </c>
       <c r="D91">
-        <v>0.0164</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lgym</t>
+          <t>Ctho</t>
         </is>
       </c>
       <c r="C92">
-        <v>41.67</v>
+        <v>33.33</v>
       </c>
       <c r="D92">
-        <v>0.1091</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mgou</t>
+          <t>Dnov</t>
         </is>
       </c>
       <c r="C93">
         <v>33.33</v>
       </c>
       <c r="D93">
-        <v>0.0345</v>
+        <v>0.0253</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cchi</t>
+          <t>Lgym</t>
         </is>
       </c>
       <c r="C94">
-        <v>25</v>
+        <v>33.33</v>
       </c>
       <c r="D94">
-        <v>0.0364</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cfam</t>
+          <t>Lwie</t>
         </is>
       </c>
       <c r="C95">
-        <v>25</v>
+        <v>27.78</v>
       </c>
       <c r="D95">
-        <v>0.0145</v>
+        <v>0.007900000000000001</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fcat</t>
+          <t>Ecab</t>
         </is>
       </c>
       <c r="C96">
         <v>16.67</v>
       </c>
       <c r="D96">
-        <v>0.08</v>
+        <v>0.0157</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Aaxi</t>
+          <t>Dalb</t>
         </is>
       </c>
       <c r="C97">
-        <v>8.33</v>
+        <v>11.11</v>
       </c>
       <c r="D97">
-        <v>0.0036</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Btau</t>
+          <t>Lgeo</t>
         </is>
       </c>
       <c r="C98">
-        <v>8.33</v>
+        <v>11.11</v>
       </c>
       <c r="D98">
-        <v>0.0073</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dsep</t>
+          <t>Pcan</t>
         </is>
       </c>
       <c r="C99">
-        <v>8.33</v>
+        <v>11.11</v>
       </c>
       <c r="D99">
-        <v>0.0018</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Lwie</t>
+          <t>Sscr</t>
         </is>
       </c>
       <c r="C100">
-        <v>8.33</v>
+        <v>11.11</v>
       </c>
       <c r="D100">
-        <v>0.0036</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pcan</t>
+          <t>Dsep</t>
         </is>
       </c>
       <c r="C101">
-        <v>8.33</v>
+        <v>5.56</v>
       </c>
       <c r="D101">
-        <v>0.0018</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Sscr</t>
+          <t>Esex</t>
         </is>
       </c>
       <c r="C102">
-        <v>8.33</v>
+        <v>5.56</v>
       </c>
       <c r="D102">
-        <v>0.0018</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Btau</t>
+          <t>Gcuj</t>
         </is>
       </c>
       <c r="C103">
-        <v>55</v>
+        <v>5.56</v>
       </c>
       <c r="D103">
-        <v>0.284</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ctho</t>
+          <t>Hhyd</t>
         </is>
       </c>
       <c r="C104">
-        <v>45</v>
+        <v>5.56</v>
       </c>
       <c r="D104">
-        <v>0.0362</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Mgou</t>
+          <t>Leur</t>
         </is>
       </c>
       <c r="C105">
-        <v>25</v>
+        <v>5.56</v>
       </c>
       <c r="D105">
-        <v>0.0395</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>QC</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sscr</t>
+          <t>Oari</t>
         </is>
       </c>
       <c r="C106">
-        <v>25</v>
+        <v>5.56</v>
       </c>
       <c r="D106">
-        <v>0.0537</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Cfam</t>
+          <t>Ctho</t>
         </is>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D107">
-        <v>0.0066</v>
+        <v>0.1327</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3000,52 +3105,52 @@
         </is>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>66.67</v>
       </c>
       <c r="D108">
-        <v>0.0143</v>
+        <v>0.08359999999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pcan</t>
+          <t>Dnov</t>
         </is>
       </c>
       <c r="C109">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D109">
-        <v>0.0055</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Dnov</t>
+          <t>Lgeo</t>
         </is>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>41.67</v>
       </c>
       <c r="D110">
-        <v>0.0285</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3054,117 +3159,459 @@
         </is>
       </c>
       <c r="C111">
-        <v>15</v>
+        <v>41.67</v>
       </c>
       <c r="D111">
-        <v>0.0219</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Oari</t>
+          <t>Mgou</t>
         </is>
       </c>
       <c r="C112">
-        <v>15</v>
+        <v>33.33</v>
       </c>
       <c r="D112">
-        <v>0.0384</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Ecab</t>
+          <t>Cchi</t>
         </is>
       </c>
       <c r="C113">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D113">
-        <v>0.0154</v>
+        <v>0.0364</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cchi</t>
+          <t>Cfam</t>
         </is>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D114">
-        <v>0.0011</v>
+        <v>0.0145</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Dalb</t>
+          <t>Fcat</t>
         </is>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>16.67</v>
       </c>
       <c r="D115">
-        <v>0.0022</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lgeo</t>
+          <t>Aaxi</t>
         </is>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>8.33</v>
       </c>
       <c r="D116">
-        <v>0.0011</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Btau</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>8.33</v>
+      </c>
+      <c r="D117">
+        <v>0.0073</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Dsep</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>8.33</v>
+      </c>
+      <c r="D118">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Lwie</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>8.33</v>
+      </c>
+      <c r="D119">
+        <v>0.0036</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Pcan</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>8.33</v>
+      </c>
+      <c r="D120">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Sscr</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>8.33</v>
+      </c>
+      <c r="D121">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>SM</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Btau</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>55</v>
+      </c>
+      <c r="D122">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Ctho</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>45</v>
+      </c>
+      <c r="D123">
+        <v>0.0362</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Mgou</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>25</v>
+      </c>
+      <c r="D124">
+        <v>0.0395</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Sscr</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <v>0.0537</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Cfam</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>0.0066</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Leur</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>0.0143</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Pcan</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>20</v>
+      </c>
+      <c r="D128">
+        <v>0.0055</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Dnov</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>15</v>
+      </c>
+      <c r="D129">
+        <v>0.0285</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Lgym</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>0.0219</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Oari</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <v>0.0384</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Ecab</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>0.0154</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Cchi</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Dalb</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>0.0022</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Lgeo</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>0.0011</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Lwie</t>
         </is>
       </c>
-      <c r="C117">
+      <c r="C136">
         <v>5</v>
       </c>
-      <c r="D117">
+      <c r="D136">
         <v>0.0011</v>
       </c>
     </row>
@@ -3175,7 +3622,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3211,39 +3658,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ctho</t>
+          <t>Btau</t>
         </is>
       </c>
       <c r="B2">
-        <v>51.61</v>
+        <v>49.37</v>
       </c>
       <c r="C2">
-        <v>13.18</v>
+        <v>19.48</v>
       </c>
       <c r="D2">
-        <v>0.0535</v>
+        <v>0.2295</v>
       </c>
       <c r="E2">
-        <v>0.0372</v>
+        <v>0.2001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Btau</t>
+          <t>Ctho</t>
         </is>
       </c>
       <c r="B3">
-        <v>49.28</v>
+        <v>49.32</v>
       </c>
       <c r="C3">
-        <v>21.04</v>
+        <v>13.8</v>
       </c>
       <c r="D3">
-        <v>0.2395</v>
+        <v>0.0494</v>
       </c>
       <c r="E3">
-        <v>0.214</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="4">
@@ -3272,35 +3719,29 @@
         </is>
       </c>
       <c r="B5">
-        <v>38.34</v>
+        <v>37.71</v>
       </c>
       <c r="C5">
-        <v>21.66</v>
+        <v>20.13</v>
       </c>
       <c r="D5">
-        <v>0.06610000000000001</v>
+        <v>0.0587</v>
       </c>
       <c r="E5">
-        <v>0.0694</v>
+        <v>0.0675</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hhyd</t>
+          <t>Chir</t>
         </is>
       </c>
       <c r="B6">
-        <v>30.16</v>
-      </c>
-      <c r="C6">
-        <v>31.77</v>
+        <v>33.33</v>
       </c>
       <c r="D6">
-        <v>0.1646</v>
-      </c>
-      <c r="E6">
-        <v>0.2207</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="7">
@@ -3310,187 +3751,187 @@
         </is>
       </c>
       <c r="B7">
-        <v>28.57</v>
+        <v>29.86</v>
       </c>
       <c r="C7">
-        <v>17.24</v>
+        <v>16.37</v>
       </c>
       <c r="D7">
-        <v>0.0384</v>
+        <v>0.0355</v>
       </c>
       <c r="E7">
-        <v>0.0273</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leur</t>
+          <t>Dnov</t>
         </is>
       </c>
       <c r="B8">
-        <v>27.28</v>
+        <v>26.37</v>
       </c>
       <c r="C8">
-        <v>20.86</v>
+        <v>13.53</v>
       </c>
       <c r="D8">
-        <v>0.0277</v>
+        <v>0.0273</v>
       </c>
       <c r="E8">
-        <v>0.0297</v>
+        <v>0.0178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dnov</t>
+          <t>Cfam</t>
         </is>
       </c>
       <c r="B9">
-        <v>25.37</v>
+        <v>25.43</v>
       </c>
       <c r="C9">
-        <v>14.3</v>
+        <v>12.49</v>
       </c>
       <c r="D9">
-        <v>0.0276</v>
+        <v>0.0132</v>
       </c>
       <c r="E9">
-        <v>0.0192</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cchi</t>
+          <t>Leur</t>
         </is>
       </c>
       <c r="B10">
-        <v>22.2</v>
+        <v>24.17</v>
       </c>
       <c r="C10">
-        <v>10.15</v>
+        <v>20.74</v>
       </c>
       <c r="D10">
-        <v>0.0335</v>
+        <v>0.0243</v>
       </c>
       <c r="E10">
-        <v>0.0291</v>
+        <v>0.0287</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sscr</t>
+          <t>Hhyd</t>
         </is>
       </c>
       <c r="B11">
-        <v>22.06</v>
+        <v>24.01</v>
       </c>
       <c r="C11">
-        <v>23.25</v>
+        <v>28.71</v>
       </c>
       <c r="D11">
-        <v>0.0711</v>
+        <v>0.1237</v>
       </c>
       <c r="E11">
-        <v>0.1379</v>
+        <v>0.1979</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cfam</t>
+          <t>Cchi</t>
         </is>
       </c>
       <c r="B12">
-        <v>21.93</v>
+        <v>22.2</v>
       </c>
       <c r="C12">
-        <v>8.18</v>
+        <v>10.15</v>
       </c>
       <c r="D12">
-        <v>0.0135</v>
+        <v>0.0335</v>
       </c>
       <c r="E12">
-        <v>0.011</v>
+        <v>0.0291</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ecab</t>
+          <t>Sscr</t>
         </is>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>20.5</v>
       </c>
       <c r="C13">
-        <v>10.8</v>
+        <v>21.63</v>
       </c>
       <c r="D13">
-        <v>0.0512</v>
+        <v>0.0616</v>
       </c>
       <c r="E13">
-        <v>0.0514</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lgeo</t>
+          <t>Ecab</t>
         </is>
       </c>
       <c r="B14">
-        <v>17.99</v>
+        <v>17.78</v>
       </c>
       <c r="C14">
-        <v>14.24</v>
+        <v>9.68</v>
       </c>
       <c r="D14">
-        <v>0.0102</v>
+        <v>0.0453</v>
       </c>
       <c r="E14">
-        <v>0.0118</v>
+        <v>0.0482</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Esex</t>
+          <t>Lgeo</t>
         </is>
       </c>
       <c r="B15">
-        <v>16.61</v>
+        <v>17.13</v>
       </c>
       <c r="C15">
-        <v>12.14</v>
+        <v>13.4</v>
       </c>
       <c r="D15">
-        <v>0.0128</v>
+        <v>0.0092</v>
       </c>
       <c r="E15">
-        <v>0.0144</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Oari</t>
+          <t>Esex</t>
         </is>
       </c>
       <c r="B16">
-        <v>15.22</v>
+        <v>14.4</v>
       </c>
       <c r="C16">
-        <v>10.41</v>
+        <v>11.62</v>
       </c>
       <c r="D16">
-        <v>0.1081</v>
+        <v>0.0105</v>
       </c>
       <c r="E16">
-        <v>0.1293</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="17">
@@ -3500,105 +3941,105 @@
         </is>
       </c>
       <c r="B17">
-        <v>14.02</v>
+        <v>13.6</v>
       </c>
       <c r="C17">
-        <v>8.91</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D17">
-        <v>0.0135</v>
+        <v>0.0119</v>
       </c>
       <c r="E17">
-        <v>0.0174</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dsep</t>
+          <t>Oari</t>
         </is>
       </c>
       <c r="B18">
-        <v>13.49</v>
+        <v>13.29</v>
       </c>
       <c r="C18">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.0114</v>
+        <v>0.0868</v>
       </c>
       <c r="E18">
-        <v>0.0124</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mcoy</t>
+          <t>Lwie</t>
         </is>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>12.58</v>
+      </c>
+      <c r="C19">
+        <v>8.119999999999999</v>
       </c>
       <c r="D19">
-        <v>0.015</v>
+        <v>0.008</v>
+      </c>
+      <c r="E19">
+        <v>0.0083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lwie</t>
+          <t>Dsep</t>
         </is>
       </c>
       <c r="B20">
-        <v>9.539999999999999</v>
+        <v>12.17</v>
       </c>
       <c r="C20">
-        <v>3.61</v>
+        <v>6.19</v>
       </c>
       <c r="D20">
-        <v>0.008</v>
+        <v>0.0097</v>
       </c>
       <c r="E20">
-        <v>0.0092</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fcat</t>
+          <t>Mcoy</t>
         </is>
       </c>
       <c r="B21">
-        <v>9.390000000000001</v>
-      </c>
-      <c r="C21">
-        <v>7.32</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>0.0273</v>
-      </c>
-      <c r="E21">
-        <v>0.037</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gcuj</t>
+          <t>Fcat</t>
         </is>
       </c>
       <c r="B22">
-        <v>7.31</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C22">
-        <v>6.29</v>
+        <v>7.32</v>
       </c>
       <c r="D22">
-        <v>0.003</v>
+        <v>0.0273</v>
       </c>
       <c r="E22">
-        <v>0.0035</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="23">
@@ -3608,28 +4049,47 @@
         </is>
       </c>
       <c r="B23">
-        <v>6.23</v>
+        <v>7.21</v>
       </c>
       <c r="C23">
-        <v>1.45</v>
+        <v>2.52</v>
       </c>
       <c r="D23">
+        <v>0.0034</v>
+      </c>
+      <c r="E23">
         <v>0.0036</v>
-      </c>
-      <c r="E23">
-        <v>0.0042</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Gcuj</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>6.73</v>
+      </c>
+      <c r="C24">
+        <v>4.56</v>
+      </c>
+      <c r="D24">
+        <v>0.0023</v>
+      </c>
+      <c r="E24">
+        <v>0.0028</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Llon</t>
         </is>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>1.67</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0.0005</v>
       </c>
     </row>
